--- a/docs/詳細設計書/共通設計書_ログ設計.xlsx
+++ b/docs/詳細設計書/共通設計書_ログ設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digitalOJT\digital-ojt-development-cause-DroneInventorySystem\docs\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D6FB83-5442-4F71-9CBB-82F0CFFBD71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196AD4ED-0164-4814-BF31-FFD5E17CF343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5430" yWindow="0" windowWidth="23475" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="処理詳細" sheetId="6" r:id="rId1"/>
@@ -576,119 +576,119 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -973,343 +973,343 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0321E2FF-B5AC-41F2-A117-7573E3657953}">
   <dimension ref="A1:AO50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="J13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="9" width="4.125" style="5"/>
+    <col min="1" max="9" width="4.09765625" style="5"/>
     <col min="10" max="11" width="4.5" style="5" customWidth="1"/>
-    <col min="12" max="14" width="6.125" style="5" customWidth="1"/>
-    <col min="15" max="27" width="4.125" style="5"/>
-    <col min="28" max="29" width="5.125" style="5" customWidth="1"/>
-    <col min="30" max="16384" width="4.125" style="5"/>
+    <col min="12" max="14" width="6.09765625" style="5" customWidth="1"/>
+    <col min="15" max="27" width="4.09765625" style="5"/>
+    <col min="28" max="29" width="5.09765625" style="5" customWidth="1"/>
+    <col min="30" max="16384" width="4.09765625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="22" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="43" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="22" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="21" t="s">
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="44">
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="33">
         <v>45566</v>
       </c>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
     </row>
     <row r="2" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="22" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="43" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
     </row>
     <row r="3" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="22" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="21" t="s">
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="22" t="s">
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="22" t="s">
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
     </row>
     <row r="4" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="22" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
     </row>
     <row r="5" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="37"/>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="36" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="33" t="s">
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="22" t="s">
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
     </row>
     <row r="7" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="26"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="16"/>
     </row>
     <row r="8" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="15"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1322,25 +1322,25 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="17"/>
-      <c r="AO8" s="12"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="24"/>
+      <c r="AO8" s="9"/>
     </row>
     <row r="9" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="15"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="4"/>
       <c r="J9" s="1" t="s">
         <v>1</v>
@@ -1353,25 +1353,25 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="17"/>
-      <c r="AO9" s="12"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="24"/>
+      <c r="AO9" s="9"/>
     </row>
     <row r="10" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="15"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="4"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1382,25 +1382,25 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="17"/>
-      <c r="AO10" s="12"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="23"/>
+      <c r="AL10" s="24"/>
+      <c r="AO10" s="9"/>
     </row>
     <row r="11" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="15"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="4" t="s">
         <v>2</v>
       </c>
@@ -1413,25 +1413,25 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="13"/>
-      <c r="AO11" s="12"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="10"/>
+      <c r="AO11" s="9"/>
     </row>
     <row r="12" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="15"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="3"/>
       <c r="J12" s="1" t="s">
         <v>3</v>
@@ -1444,25 +1444,25 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="17"/>
-      <c r="AO12" s="12"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="23"/>
+      <c r="AL12" s="24"/>
+      <c r="AO12" s="9"/>
     </row>
     <row r="13" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="15"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="3"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1473,25 +1473,25 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="18"/>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="18"/>
-      <c r="AJ13" s="18"/>
-      <c r="AK13" s="18"/>
-      <c r="AL13" s="17"/>
-      <c r="AO13" s="12"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="23"/>
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="23"/>
+      <c r="AL13" s="24"/>
+      <c r="AO13" s="9"/>
     </row>
     <row r="14" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="3"/>
       <c r="J14" s="1" t="s">
         <v>46</v>
@@ -1504,25 +1504,25 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="18"/>
-      <c r="AL14" s="17"/>
-      <c r="AO14" s="12"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="23"/>
+      <c r="AL14" s="24"/>
+      <c r="AO14" s="9"/>
     </row>
     <row r="15" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="15"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="3"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
@@ -1535,25 +1535,25 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="13"/>
-      <c r="AO15" s="12"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="10"/>
+      <c r="AO15" s="9"/>
     </row>
     <row r="16" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="15"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="4"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1564,25 +1564,25 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="13"/>
-      <c r="AO16" s="12"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="10"/>
+      <c r="AO16" s="9"/>
     </row>
     <row r="17" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="15"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="4"/>
       <c r="J17" s="1" t="s">
         <v>47</v>
@@ -1595,25 +1595,25 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="13"/>
-      <c r="AO17" s="12"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="10"/>
+      <c r="AO17" s="9"/>
     </row>
     <row r="18" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="15"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="4"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
@@ -1626,25 +1626,25 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="13"/>
-      <c r="AO18" s="12"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="10"/>
+      <c r="AO18" s="9"/>
     </row>
     <row r="19" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="15"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="4"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1655,25 +1655,25 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="13"/>
-      <c r="AO19" s="12"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="10"/>
+      <c r="AO19" s="9"/>
     </row>
     <row r="20" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="15"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="4"/>
       <c r="J20" s="1" t="s">
         <v>48</v>
@@ -1686,25 +1686,25 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="13"/>
-      <c r="AO20" s="12"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="10"/>
+      <c r="AO20" s="9"/>
     </row>
     <row r="21" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="15"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="4"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
@@ -1717,25 +1717,25 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="13"/>
-      <c r="AO21" s="12"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="10"/>
+      <c r="AO21" s="9"/>
     </row>
     <row r="22" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="15"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="4"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
@@ -1748,25 +1748,25 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="14"/>
-      <c r="AL22" s="13"/>
-      <c r="AO22" s="12"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="10"/>
+      <c r="AO22" s="9"/>
     </row>
     <row r="23" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="15"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="4"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1777,25 +1777,25 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
-      <c r="AK23" s="14"/>
-      <c r="AL23" s="13"/>
-      <c r="AO23" s="12"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="10"/>
+      <c r="AO23" s="9"/>
     </row>
     <row r="24" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="15"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="4" t="s">
         <v>8</v>
       </c>
@@ -1808,25 +1808,25 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="13"/>
-      <c r="AO24" s="12"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="10"/>
+      <c r="AO24" s="9"/>
     </row>
     <row r="25" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="15"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="4"/>
       <c r="J25" s="1" t="s">
         <v>9</v>
@@ -1839,25 +1839,25 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="13"/>
-      <c r="AO25" s="12"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="10"/>
+      <c r="AO25" s="9"/>
     </row>
     <row r="26" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="15"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="4"/>
       <c r="J26" s="1"/>
       <c r="K26"/>
@@ -1870,25 +1870,25 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="13"/>
-      <c r="AO26" s="12"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="10"/>
+      <c r="AO26" s="9"/>
     </row>
     <row r="27" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="15"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="4"/>
       <c r="J27" s="1"/>
       <c r="K27"/>
@@ -1901,25 +1901,25 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="13"/>
-      <c r="AO27" s="12"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="10"/>
+      <c r="AO27" s="9"/>
     </row>
     <row r="28" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="15"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="4"/>
       <c r="J28" s="1"/>
       <c r="K28"/>
@@ -1932,25 +1932,25 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="14"/>
-      <c r="AL28" s="13"/>
-      <c r="AO28" s="12"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="10"/>
+      <c r="AO28" s="9"/>
     </row>
     <row r="29" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="15"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="12"/>
       <c r="I29" s="4"/>
       <c r="J29" s="1"/>
       <c r="K29"/>
@@ -1963,25 +1963,25 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="13"/>
-      <c r="AO29" s="12"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="10"/>
+      <c r="AO29" s="9"/>
     </row>
     <row r="30" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="15"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="4"/>
       <c r="J30" s="1"/>
       <c r="K30"/>
@@ -1994,25 +1994,25 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="13"/>
-      <c r="AO30" s="12"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="10"/>
+      <c r="AO30" s="9"/>
     </row>
     <row r="31" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="15"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="12"/>
       <c r="I31" s="4"/>
       <c r="J31" s="1"/>
       <c r="K31"/>
@@ -2025,25 +2025,25 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="14"/>
-      <c r="AL31" s="13"/>
-      <c r="AO31" s="12"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="10"/>
+      <c r="AO31" s="9"/>
     </row>
     <row r="32" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="15"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="4"/>
       <c r="J32" s="1"/>
       <c r="K32"/>
@@ -2056,25 +2056,25 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="14"/>
-      <c r="AL32" s="13"/>
-      <c r="AO32" s="12"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="10"/>
+      <c r="AO32" s="9"/>
     </row>
     <row r="33" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="15"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="12"/>
       <c r="I33" s="4"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2085,25 +2085,25 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="18"/>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="18"/>
-      <c r="AI33" s="18"/>
-      <c r="AJ33" s="18"/>
-      <c r="AK33" s="18"/>
-      <c r="AL33" s="17"/>
-      <c r="AO33" s="12"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="24"/>
+      <c r="AO33" s="9"/>
     </row>
     <row r="34" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="15"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="12"/>
       <c r="I34" s="4" t="s">
         <v>17</v>
       </c>
@@ -2116,25 +2116,25 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="18"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="18"/>
-      <c r="AI34" s="18"/>
-      <c r="AJ34" s="18"/>
-      <c r="AK34" s="18"/>
-      <c r="AL34" s="17"/>
-      <c r="AO34" s="12"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="24"/>
+      <c r="AO34" s="9"/>
     </row>
     <row r="35" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="15"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="4"/>
       <c r="J35" s="1" t="s">
         <v>18</v>
@@ -2147,25 +2147,25 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="18"/>
-      <c r="AG35" s="18"/>
-      <c r="AH35" s="18"/>
-      <c r="AI35" s="18"/>
-      <c r="AJ35" s="18"/>
-      <c r="AK35" s="18"/>
-      <c r="AL35" s="17"/>
-      <c r="AO35" s="12"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="23"/>
+      <c r="AL35" s="24"/>
+      <c r="AO35" s="9"/>
     </row>
     <row r="36" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="15"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="12"/>
       <c r="I36" s="4"/>
       <c r="J36" s="1" t="s">
         <v>19</v>
@@ -2178,25 +2178,25 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="18"/>
-      <c r="AG36" s="18"/>
-      <c r="AH36" s="18"/>
-      <c r="AI36" s="18"/>
-      <c r="AJ36" s="18"/>
-      <c r="AK36" s="18"/>
-      <c r="AL36" s="17"/>
-      <c r="AO36" s="12"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="23"/>
+      <c r="AL36" s="24"/>
+      <c r="AO36" s="9"/>
     </row>
     <row r="37" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="15"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="12"/>
       <c r="I37" s="4"/>
       <c r="J37" s="1" t="s">
         <v>20</v>
@@ -2209,25 +2209,25 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="18"/>
-      <c r="AG37" s="18"/>
-      <c r="AH37" s="18"/>
-      <c r="AI37" s="18"/>
-      <c r="AJ37" s="18"/>
-      <c r="AK37" s="18"/>
-      <c r="AL37" s="17"/>
-      <c r="AO37" s="12"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="23"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
+      <c r="AL37" s="24"/>
+      <c r="AO37" s="9"/>
     </row>
     <row r="38" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="19"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="15"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="12"/>
       <c r="I38" s="4"/>
       <c r="J38" s="1" t="s">
         <v>21</v>
@@ -2240,25 +2240,25 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="18"/>
-      <c r="AH38" s="18"/>
-      <c r="AI38" s="18"/>
-      <c r="AJ38" s="18"/>
-      <c r="AK38" s="18"/>
-      <c r="AL38" s="17"/>
-      <c r="AO38" s="12"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="23"/>
+      <c r="AL38" s="24"/>
+      <c r="AO38" s="9"/>
     </row>
     <row r="39" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="15"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
       <c r="I39" s="4"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2269,25 +2269,25 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="14"/>
-      <c r="AG39" s="14"/>
-      <c r="AH39" s="14"/>
-      <c r="AI39" s="14"/>
-      <c r="AJ39" s="14"/>
-      <c r="AK39" s="14"/>
-      <c r="AL39" s="13"/>
-      <c r="AO39" s="12"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="10"/>
+      <c r="AO39" s="9"/>
     </row>
     <row r="40" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="15"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
       <c r="I40" s="4" t="s">
         <v>22</v>
       </c>
@@ -2300,25 +2300,25 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-      <c r="AE40" s="12"/>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
-      <c r="AK40" s="14"/>
-      <c r="AL40" s="13"/>
-      <c r="AO40" s="12"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="10"/>
+      <c r="AO40" s="9"/>
     </row>
     <row r="41" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="15"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
       <c r="I41" s="4"/>
       <c r="J41" s="1" t="s">
         <v>23</v>
@@ -2331,25 +2331,25 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-      <c r="AE41" s="12"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14"/>
-      <c r="AI41" s="14"/>
-      <c r="AJ41" s="14"/>
-      <c r="AK41" s="14"/>
-      <c r="AL41" s="13"/>
-      <c r="AO41" s="12"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="10"/>
+      <c r="AO41" s="9"/>
     </row>
     <row r="42" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="16"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="15"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
       <c r="I42" s="4" t="s">
         <v>27</v>
       </c>
@@ -2362,25 +2362,25 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="AE42" s="12"/>
-      <c r="AF42" s="14"/>
-      <c r="AG42" s="14"/>
-      <c r="AH42" s="14"/>
-      <c r="AI42" s="14"/>
-      <c r="AJ42" s="14"/>
-      <c r="AK42" s="14"/>
-      <c r="AL42" s="13"/>
-      <c r="AO42" s="12"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="10"/>
+      <c r="AO42" s="9"/>
     </row>
     <row r="43" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="16"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="15"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
       <c r="I43" s="3"/>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -2393,25 +2393,25 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-      <c r="AE43" s="12"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14"/>
-      <c r="AJ43" s="14"/>
-      <c r="AK43" s="14"/>
-      <c r="AL43" s="13"/>
-      <c r="AO43" s="12"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="10"/>
+      <c r="AO43" s="9"/>
     </row>
     <row r="44" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="12"/>
       <c r="I44" s="3"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -2422,25 +2422,25 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="14"/>
-      <c r="AH44" s="14"/>
-      <c r="AI44" s="14"/>
-      <c r="AJ44" s="14"/>
-      <c r="AK44" s="14"/>
-      <c r="AL44" s="13"/>
-      <c r="AO44" s="12"/>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="11"/>
+      <c r="AL44" s="10"/>
+      <c r="AO44" s="9"/>
     </row>
     <row r="45" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="15"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
       <c r="I45" s="3"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -2451,25 +2451,25 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-      <c r="AE45" s="12"/>
-      <c r="AF45" s="14"/>
-      <c r="AG45" s="14"/>
-      <c r="AH45" s="14"/>
-      <c r="AI45" s="14"/>
-      <c r="AJ45" s="14"/>
-      <c r="AK45" s="14"/>
-      <c r="AL45" s="13"/>
-      <c r="AO45" s="12"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+      <c r="AL45" s="10"/>
+      <c r="AO45" s="9"/>
     </row>
     <row r="46" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="15"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="12"/>
       <c r="I46" s="4" t="s">
         <v>24</v>
       </c>
@@ -2482,25 +2482,25 @@
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46"/>
-      <c r="AE46" s="12"/>
-      <c r="AF46" s="18"/>
-      <c r="AG46" s="18"/>
-      <c r="AH46" s="18"/>
-      <c r="AI46" s="18"/>
-      <c r="AJ46" s="18"/>
-      <c r="AK46" s="18"/>
-      <c r="AL46" s="17"/>
-      <c r="AO46" s="12"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="23"/>
+      <c r="AG46" s="23"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="23"/>
+      <c r="AJ46" s="23"/>
+      <c r="AK46" s="23"/>
+      <c r="AL46" s="24"/>
+      <c r="AO46" s="9"/>
     </row>
     <row r="47" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="15"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="12"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
         <v>25</v>
@@ -2513,25 +2513,25 @@
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47"/>
-      <c r="AE47" s="12"/>
-      <c r="AF47" s="18"/>
-      <c r="AG47" s="18"/>
-      <c r="AH47" s="18"/>
-      <c r="AI47" s="18"/>
-      <c r="AJ47" s="18"/>
-      <c r="AK47" s="18"/>
-      <c r="AL47" s="17"/>
-      <c r="AO47" s="12"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="23"/>
+      <c r="AG47" s="23"/>
+      <c r="AH47" s="23"/>
+      <c r="AI47" s="23"/>
+      <c r="AJ47" s="23"/>
+      <c r="AK47" s="23"/>
+      <c r="AL47" s="24"/>
+      <c r="AO47" s="9"/>
     </row>
     <row r="48" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="19"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="15"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="12"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
         <v>26</v>
@@ -2544,44 +2544,44 @@
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48"/>
-      <c r="AE48" s="12"/>
-      <c r="AF48" s="18"/>
-      <c r="AG48" s="18"/>
-      <c r="AH48" s="18"/>
-      <c r="AI48" s="18"/>
-      <c r="AJ48" s="18"/>
-      <c r="AK48" s="18"/>
-      <c r="AL48" s="17"/>
-      <c r="AO48" s="12"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="23"/>
+      <c r="AG48" s="23"/>
+      <c r="AH48" s="23"/>
+      <c r="AI48" s="23"/>
+      <c r="AJ48" s="23"/>
+      <c r="AK48" s="23"/>
+      <c r="AL48" s="24"/>
+      <c r="AO48" s="9"/>
     </row>
     <row r="49" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="19"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="15"/>
-      <c r="AE49" s="12"/>
-      <c r="AF49" s="18"/>
-      <c r="AG49" s="18"/>
-      <c r="AH49" s="18"/>
-      <c r="AI49" s="18"/>
-      <c r="AJ49" s="18"/>
-      <c r="AK49" s="18"/>
-      <c r="AL49" s="17"/>
-      <c r="AO49" s="12"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="12"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="23"/>
+      <c r="AG49" s="23"/>
+      <c r="AH49" s="23"/>
+      <c r="AI49" s="23"/>
+      <c r="AJ49" s="23"/>
+      <c r="AK49" s="23"/>
+      <c r="AL49" s="24"/>
+      <c r="AO49" s="9"/>
     </row>
     <row r="50" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="10"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="8"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -2605,24 +2605,63 @@
       <c r="AC50" s="7"/>
       <c r="AD50" s="7"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="9"/>
-      <c r="AG50" s="9"/>
-      <c r="AH50" s="9"/>
-      <c r="AI50" s="9"/>
-      <c r="AJ50" s="9"/>
-      <c r="AK50" s="9"/>
-      <c r="AL50" s="8"/>
+      <c r="AF50" s="26"/>
+      <c r="AG50" s="26"/>
+      <c r="AH50" s="26"/>
+      <c r="AI50" s="26"/>
+      <c r="AJ50" s="26"/>
+      <c r="AK50" s="26"/>
+      <c r="AL50" s="27"/>
       <c r="AM50" s="7"/>
       <c r="AN50" s="7"/>
       <c r="AO50" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A1:N4"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="AF50:AL50"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="AF47:AL47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="AF48:AL48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="AF49:AL49"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="AF38:AL38"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="AF46:AL46"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AF34:AL34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="AF35:AL35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="AF36:AL36"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="AF13:AL13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="AF14:AL14"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="AF33:AL33"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="AF9:AL9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="AF10:AL10"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="AF12:AL12"/>
+    <mergeCell ref="AF6:AL6"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="AF7:AL7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="AF8:AL8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:AE6"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="T4:AA4"/>
     <mergeCell ref="AL1:AO2"/>
@@ -2635,50 +2674,11 @@
     <mergeCell ref="AI3:AK4"/>
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="O4:S4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:AE6"/>
-    <mergeCell ref="AF6:AL6"/>
-    <mergeCell ref="AM6:AO6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="AF7:AL7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="AF8:AL8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="AF9:AL9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="AF10:AL10"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="AF12:AL12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="AF13:AL13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="AF14:AL14"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="AF33:AL33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="AF34:AL34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="AF35:AL35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="AF36:AL36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="AF38:AL38"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="AF46:AL46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="AF47:AL47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="AF48:AL48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="AF49:AL49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="AF50:AL50"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
